--- a/Buffalo County 2022 hemp plot data draft.xlsx
+++ b/Buffalo County 2022 hemp plot data draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carl.duley\Desktop\Carl's Desktop\Desktop\hemp\2022 hemp plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usdagcc-my.sharepoint.com/personal/kolby_grint_usda_gov/Documents/Documents/R Vizualizations and Data/WI-Hemp-Trial-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43B8817-ED31-4B7C-899B-2E0EAE09DD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B43B8817-ED31-4B7C-899B-2E0EAE09DD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4D4D9C5-CD5D-46EB-9519-622DFC169240}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="819" activeTab="1" xr2:uid="{0FF4FC0E-D994-4B1A-8CE6-1A5A055F7C1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" xr2:uid="{0FF4FC0E-D994-4B1A-8CE6-1A5A055F7C1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffalo County" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="263">
   <si>
     <t>Trmt/Variety</t>
   </si>
@@ -827,6 +827,9 @@
   </si>
   <si>
     <t>kg dm/acre</t>
+  </si>
+  <si>
+    <t>~2 weeks post planting</t>
   </si>
 </sst>
 </file>
@@ -1414,19 +1417,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76027A4-AB24-432F-A61E-F841089686A6}">
   <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>137</v>
       </c>
@@ -1434,7 +1437,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>64</v>
       </c>
@@ -1442,25 +1445,25 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
@@ -1468,7 +1471,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>1</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>2</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>3</v>
       </c>
@@ -1596,7 +1599,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>4</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>5</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>6</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>7</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>8</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>9</v>
       </c>
@@ -1824,25 +1827,25 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="11"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="11"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="11"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>63</v>
       </c>
@@ -1850,7 +1853,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>1</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>2</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>3</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>4</v>
       </c>
@@ -2026,30 +2029,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA1D40E-5801-4B4E-9111-0731CC663E5E}">
   <dimension ref="A1:AS108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AS5" sqref="AS5"/>
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M106" sqref="M106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" style="38" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="43" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="38" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="43" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
         <v>141</v>
       </c>
@@ -2057,7 +2060,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>259</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>138</v>
       </c>
@@ -2217,7 +2223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>29</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>128.524</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2477,7 +2483,7 @@
         <v>109.72800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2522,7 +2528,7 @@
         <v>1737.4341599999998</v>
       </c>
       <c r="M6" s="38">
-        <f t="shared" ref="M5:M68" si="8">+(L6*0.0011023113109244)</f>
+        <f t="shared" ref="M6:M68" si="8">+(L6*0.0011023113109244)</f>
         <v>1.9151933265544336</v>
       </c>
       <c r="O6" s="22" t="s">
@@ -2618,7 +2624,7 @@
         <v>88.9</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>163.06800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>115.316</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>161.036</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3182,7 +3188,7 @@
         <v>148.84399999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3323,7 +3329,7 @@
         <v>155.95599999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3464,7 +3470,7 @@
         <v>143.256</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3605,7 +3611,7 @@
         <v>173.73600000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3746,7 +3752,7 @@
         <v>179.83199999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3887,7 +3893,7 @@
         <v>148.33599999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -4028,7 +4034,7 @@
         <v>279.90800000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4169,7 +4175,7 @@
         <v>209.804</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -4310,7 +4316,7 @@
         <v>222.50399999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -4451,7 +4457,7 @@
         <v>149.86000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -4592,7 +4598,7 @@
         <v>135.636</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -4733,7 +4739,7 @@
         <v>123.444</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -4871,7 +4877,7 @@
         <v>213.36</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -5012,7 +5018,7 @@
         <v>189.99199999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -5153,7 +5159,7 @@
         <v>144.78</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -5294,7 +5300,7 @@
         <v>288.54399999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -5435,7 +5441,7 @@
         <v>130.55600000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -5576,7 +5582,7 @@
         <v>216.91600000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -5717,7 +5723,7 @@
         <v>154.94</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -5858,7 +5864,7 @@
         <v>133.096</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -5999,7 +6005,7 @@
         <v>198.12</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -6140,7 +6146,7 @@
         <v>124.46000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -6281,7 +6287,7 @@
         <v>127.50800000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -6419,7 +6425,7 @@
         <v>179.83199999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -6560,7 +6566,7 @@
         <v>105.15599999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -6701,7 +6707,7 @@
         <v>139.19200000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -6842,7 +6848,7 @@
         <v>194.56399999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -6980,7 +6986,7 @@
         <v>139.19200000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -7118,7 +7124,7 @@
         <v>155.44800000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -7259,7 +7265,7 @@
         <v>175.26</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -7400,7 +7406,7 @@
         <v>187.452</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -7541,7 +7547,7 @@
         <v>163.06800000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -7682,7 +7688,7 @@
         <v>249.93600000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -7823,7 +7829,7 @@
         <v>238.25200000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -7964,7 +7970,7 @@
         <v>166.624</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -8105,7 +8111,7 @@
         <v>143.256</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -8246,7 +8252,7 @@
         <v>175.768</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -8387,7 +8393,7 @@
         <v>161.54400000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -8528,7 +8534,7 @@
         <v>180.84800000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -8669,7 +8675,7 @@
         <v>244.85600000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -8810,7 +8816,7 @@
         <v>220.47200000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -8951,7 +8957,7 @@
         <v>221.99600000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -9092,7 +9098,7 @@
         <v>176.78399999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -9233,7 +9239,7 @@
         <v>220.98</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -9374,7 +9380,7 @@
         <v>292.608</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -9515,7 +9521,7 @@
         <v>208.28</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -9653,7 +9659,7 @@
         <v>201.93</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -9791,7 +9797,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -9929,7 +9935,7 @@
         <v>206.24800000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -10070,7 +10076,7 @@
         <v>255.524</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -10211,7 +10217,7 @@
         <v>237.23600000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -10352,7 +10358,7 @@
         <v>228.6</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -10493,7 +10499,7 @@
         <v>204.72399999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -10634,7 +10640,7 @@
         <v>179.32399999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -10775,7 +10781,7 @@
         <v>232.66399999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -10916,7 +10922,7 @@
         <v>216.40800000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -11057,7 +11063,7 @@
         <v>165.1</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -11198,7 +11204,7 @@
         <v>254.50800000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -11339,7 +11345,7 @@
         <v>204.72399999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -11480,7 +11486,7 @@
         <v>161.54400000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -11621,7 +11627,7 @@
         <v>161.036</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -11762,7 +11768,7 @@
         <v>163.06800000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -11903,7 +11909,7 @@
         <v>136.65199999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>132</v>
       </c>
@@ -12044,7 +12050,7 @@
         <v>172.21199999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -12182,7 +12188,7 @@
         <v>174.625</v>
       </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -12323,7 +12329,7 @@
         <v>138.684</v>
       </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -12464,7 +12470,7 @@
         <v>194.56399999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>32</v>
       </c>
@@ -12575,7 +12581,7 @@
         <v>236.22</v>
       </c>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -12683,7 +12689,7 @@
         <v>231.14000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -12794,7 +12800,7 @@
         <v>178.30800000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -12905,7 +12911,7 @@
         <v>177.292</v>
       </c>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -13016,7 +13022,7 @@
         <v>174.75199999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>39</v>
       </c>
@@ -13127,7 +13133,7 @@
         <v>174.244</v>
       </c>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -13238,7 +13244,7 @@
         <v>241.3</v>
       </c>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -13349,7 +13355,7 @@
         <v>193.548</v>
       </c>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>43</v>
       </c>
@@ -13460,7 +13466,7 @@
         <v>211.83600000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>44</v>
       </c>
@@ -13571,7 +13577,7 @@
         <v>206.75600000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>45</v>
       </c>
@@ -13682,7 +13688,7 @@
         <v>175.768</v>
       </c>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>135</v>
       </c>
@@ -13793,7 +13799,7 @@
         <v>236.22</v>
       </c>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>47</v>
       </c>
@@ -13904,7 +13910,7 @@
         <v>248.92000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>48</v>
       </c>
@@ -14015,7 +14021,7 @@
         <v>220.47200000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>50</v>
       </c>
@@ -14126,7 +14132,7 @@
         <v>207.77199999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -14237,7 +14243,7 @@
         <v>188.46800000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>52</v>
       </c>
@@ -14348,7 +14354,7 @@
         <v>221.99600000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>54</v>
       </c>
@@ -14459,7 +14465,7 @@
         <v>204.21600000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>55</v>
       </c>
@@ -14570,7 +14576,7 @@
         <v>181.86399999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>57</v>
       </c>
@@ -14681,7 +14687,7 @@
         <v>167.13200000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>58</v>
       </c>
@@ -14792,7 +14798,7 @@
         <v>157.47999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>59</v>
       </c>
@@ -14900,7 +14906,7 @@
         <v>195.58</v>
       </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -15011,11 +15017,11 @@
         <v>178.30800000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>61</v>
       </c>
@@ -15032,7 +15038,7 @@
         <v>555908.57142857136</v>
       </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -15049,7 +15055,7 @@
         <v>763337.14285714296</v>
       </c>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>42</v>
       </c>
@@ -15066,7 +15072,7 @@
         <v>779931.42857142864</v>
       </c>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>46</v>
       </c>
@@ -15083,7 +15089,7 @@
         <v>373371.42857142858</v>
       </c>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>49</v>
       </c>
@@ -15100,7 +15106,7 @@
         <v>406559.99999999994</v>
       </c>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>53</v>
       </c>
@@ -15117,7 +15123,7 @@
         <v>472937.1428571429</v>
       </c>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>56</v>
       </c>
@@ -15156,17 +15162,16 @@
       <selection activeCell="W88" sqref="W88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>138</v>
       </c>
@@ -15210,7 +15215,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
@@ -15257,7 +15262,7 @@
         <v>187.452</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>10</v>
       </c>
@@ -15304,7 +15309,7 @@
         <v>163.06800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>11</v>
       </c>
@@ -15351,7 +15356,7 @@
         <v>249.93600000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
@@ -15398,7 +15403,7 @@
         <v>238.25200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
@@ -15445,7 +15450,7 @@
         <v>166.624</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>14</v>
       </c>
@@ -15492,7 +15497,7 @@
         <v>143.256</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>15</v>
       </c>
@@ -15539,7 +15544,7 @@
         <v>175.768</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>16</v>
       </c>
@@ -15586,7 +15591,7 @@
         <v>161.54400000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
@@ -15633,7 +15638,7 @@
         <v>180.84800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>18</v>
       </c>
@@ -15680,7 +15685,7 @@
         <v>244.85600000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
@@ -15727,7 +15732,7 @@
         <v>220.47200000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>20</v>
       </c>
@@ -15774,7 +15779,7 @@
         <v>221.99600000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>76</v>
       </c>
@@ -15821,7 +15826,7 @@
         <v>176.78399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>77</v>
       </c>
@@ -15868,7 +15873,7 @@
         <v>220.98</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>78</v>
       </c>
@@ -15915,7 +15920,7 @@
         <v>292.608</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>79</v>
       </c>
@@ -15962,7 +15967,7 @@
         <v>208.28</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>80</v>
       </c>
@@ -16006,7 +16011,7 @@
         <v>201.93</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>81</v>
       </c>
@@ -16053,7 +16058,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>82</v>
       </c>
@@ -16100,7 +16105,7 @@
         <v>206.24800000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>83</v>
       </c>
@@ -16147,7 +16152,7 @@
         <v>255.524</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>84</v>
       </c>
@@ -16194,7 +16199,7 @@
         <v>237.23600000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>85</v>
       </c>
@@ -16241,7 +16246,7 @@
         <v>228.6</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>86</v>
       </c>
@@ -16288,7 +16293,7 @@
         <v>204.72399999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>87</v>
       </c>
@@ -16335,7 +16340,7 @@
         <v>179.32399999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>88</v>
       </c>
@@ -16382,7 +16387,7 @@
         <v>232.66399999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>89</v>
       </c>
@@ -16429,7 +16434,7 @@
         <v>216.40800000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>90</v>
       </c>
@@ -16476,7 +16481,7 @@
         <v>165.1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>91</v>
       </c>
@@ -16523,7 +16528,7 @@
         <v>254.50800000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>92</v>
       </c>
@@ -16570,7 +16575,7 @@
         <v>204.72399999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>93</v>
       </c>
@@ -16617,7 +16622,7 @@
         <v>161.54400000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>94</v>
       </c>
@@ -16664,7 +16669,7 @@
         <v>161.036</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>95</v>
       </c>
@@ -16711,7 +16716,7 @@
         <v>163.06800000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>96</v>
       </c>
@@ -16758,7 +16763,7 @@
         <v>136.65199999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>97</v>
       </c>
@@ -16805,7 +16810,7 @@
         <v>172.21199999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>98</v>
       </c>
@@ -16849,7 +16854,7 @@
         <v>174.625</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>99</v>
       </c>
@@ -16896,7 +16901,7 @@
         <v>138.684</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>100</v>
       </c>
@@ -16943,7 +16948,7 @@
         <v>194.56399999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>101</v>
       </c>
@@ -16990,7 +16995,7 @@
         <v>236.22</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>102</v>
       </c>
@@ -17037,7 +17042,7 @@
         <v>231.14000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>103</v>
       </c>
@@ -17084,7 +17089,7 @@
         <v>178.30800000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>104</v>
       </c>
@@ -17131,7 +17136,7 @@
         <v>177.292</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>105</v>
       </c>
@@ -17178,7 +17183,7 @@
         <v>174.75199999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>106</v>
       </c>
@@ -17225,7 +17230,7 @@
         <v>174.244</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>107</v>
       </c>
@@ -17272,7 +17277,7 @@
         <v>241.3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>108</v>
       </c>
@@ -17319,7 +17324,7 @@
         <v>193.548</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>136</v>
       </c>
@@ -17366,7 +17371,7 @@
         <v>211.83600000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>109</v>
       </c>
@@ -17413,7 +17418,7 @@
         <v>206.75600000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>110</v>
       </c>
@@ -17460,7 +17465,7 @@
         <v>175.768</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>111</v>
       </c>
@@ -17507,7 +17512,7 @@
         <v>236.22</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>112</v>
       </c>
@@ -17554,7 +17559,7 @@
         <v>248.92000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>113</v>
       </c>
@@ -17601,7 +17606,7 @@
         <v>220.47200000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>114</v>
       </c>
@@ -17648,7 +17653,7 @@
         <v>207.77199999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>115</v>
       </c>
@@ -17695,7 +17700,7 @@
         <v>188.46800000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>116</v>
       </c>
@@ -17742,7 +17747,7 @@
         <v>221.99600000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>117</v>
       </c>
@@ -17789,7 +17794,7 @@
         <v>204.21600000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>118</v>
       </c>
@@ -17836,7 +17841,7 @@
         <v>181.86399999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>119</v>
       </c>
@@ -17883,7 +17888,7 @@
         <v>167.13200000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>120</v>
       </c>
@@ -17930,7 +17935,7 @@
         <v>157.47999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>121</v>
       </c>
@@ -17977,7 +17982,7 @@
         <v>195.58</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>122</v>
       </c>
@@ -18024,7 +18029,7 @@
         <v>178.30800000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
         <v>123</v>
       </c>
@@ -18045,7 +18050,7 @@
         <v>3.7600000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>124</v>
       </c>
@@ -18066,7 +18071,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
         <v>125</v>
       </c>
@@ -18087,7 +18092,7 @@
         <v>3.4999999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>126</v>
       </c>
@@ -18108,7 +18113,7 @@
         <v>3.1799999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
         <v>127</v>
       </c>
@@ -18129,7 +18134,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>128</v>
       </c>
@@ -18150,7 +18155,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>129</v>
       </c>
@@ -18171,7 +18176,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>130</v>
       </c>
@@ -18192,7 +18197,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>131</v>
       </c>
@@ -18213,7 +18218,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>132</v>
       </c>
@@ -18234,7 +18239,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>133</v>
       </c>
@@ -18255,7 +18260,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>134</v>
       </c>
@@ -18276,7 +18281,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>31</v>
       </c>
@@ -18297,7 +18302,7 @@
         <v>3.2399999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>32</v>
       </c>
@@ -18318,7 +18323,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>33</v>
       </c>
@@ -18339,7 +18344,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>35</v>
       </c>
@@ -18360,7 +18365,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>36</v>
       </c>
@@ -18381,7 +18386,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
         <v>37</v>
       </c>
@@ -18402,7 +18407,7 @@
         <v>2.5999999999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
         <v>39</v>
       </c>
@@ -18423,7 +18428,7 @@
         <v>3.3799999999999994</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>40</v>
       </c>
@@ -18444,7 +18449,7 @@
         <v>2.6199999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
         <v>41</v>
       </c>
@@ -18465,7 +18470,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>43</v>
       </c>
@@ -18486,7 +18491,7 @@
         <v>3.6999999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>44</v>
       </c>
@@ -18507,7 +18512,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>45</v>
       </c>
@@ -18528,7 +18533,7 @@
         <v>1.8599999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
         <v>135</v>
       </c>
@@ -18549,7 +18554,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
         <v>47</v>
       </c>
@@ -18570,7 +18575,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
         <v>48</v>
       </c>
@@ -18591,7 +18596,7 @@
         <v>2.2199999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>50</v>
       </c>
@@ -18612,7 +18617,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
         <v>51</v>
       </c>
@@ -18633,7 +18638,7 @@
         <v>3.1599999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
         <v>52</v>
       </c>
@@ -18654,7 +18659,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
         <v>54</v>
       </c>
@@ -18675,7 +18680,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
         <v>55</v>
       </c>
@@ -18696,7 +18701,7 @@
         <v>3.4599999999999995</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
         <v>57</v>
       </c>
@@ -18717,7 +18722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
         <v>58</v>
       </c>
@@ -18738,7 +18743,7 @@
         <v>2.6999999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
         <v>59</v>
       </c>
@@ -18759,7 +18764,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
         <v>60</v>
       </c>
@@ -18797,15 +18802,15 @@
       <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -18819,7 +18824,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -18833,7 +18838,7 @@
         <v>28.64</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -18847,7 +18852,7 @@
         <v>26.43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -18861,7 +18866,7 @@
         <v>29.17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -18875,7 +18880,7 @@
         <v>28.07</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -18889,7 +18894,7 @@
         <v>28.19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -18903,7 +18908,7 @@
         <v>28.26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -18917,7 +18922,7 @@
         <v>31.26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -18931,7 +18936,7 @@
         <v>32.24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -18945,7 +18950,7 @@
         <v>37.369999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -18959,7 +18964,7 @@
         <v>27.28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -18973,7 +18978,7 @@
         <v>26.24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -18987,7 +18992,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -19001,7 +19006,7 @@
         <v>28.37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -19015,7 +19020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -19029,7 +19034,7 @@
         <v>26.68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -19043,7 +19048,7 @@
         <v>30.06</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -19057,7 +19062,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -19071,7 +19076,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -19085,7 +19090,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -19099,7 +19104,7 @@
         <v>32.17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -19113,7 +19118,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -19127,7 +19132,7 @@
         <v>28.53</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -19141,7 +19146,7 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -19155,7 +19160,7 @@
         <v>32.43</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -19169,7 +19174,7 @@
         <v>30.16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -19183,7 +19188,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -19197,7 +19202,7 @@
         <v>32.67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -19211,7 +19216,7 @@
         <v>30.29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -19225,7 +19230,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -19239,7 +19244,7 @@
         <v>30.59</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>180</v>
       </c>
@@ -19253,7 +19258,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>181</v>
       </c>
@@ -19267,7 +19272,7 @@
         <v>30.79</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -19281,7 +19286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>183</v>
       </c>
@@ -19295,7 +19300,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>184</v>
       </c>
@@ -19309,7 +19314,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>185</v>
       </c>
@@ -19323,7 +19328,7 @@
         <v>27.88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>186</v>
       </c>
@@ -19337,7 +19342,7 @@
         <v>26.42</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>187</v>
       </c>
@@ -19351,7 +19356,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -19365,7 +19370,7 @@
         <v>31.23</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>189</v>
       </c>
@@ -19379,7 +19384,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>190</v>
       </c>
@@ -19393,7 +19398,7 @@
         <v>28.67</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -19407,7 +19412,7 @@
         <v>33.53</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>192</v>
       </c>
@@ -19421,7 +19426,7 @@
         <v>33.94</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>193</v>
       </c>
@@ -19435,7 +19440,7 @@
         <v>34.950000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>194</v>
       </c>
@@ -19449,7 +19454,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>195</v>
       </c>
@@ -19463,7 +19468,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>196</v>
       </c>
@@ -19477,7 +19482,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>197</v>
       </c>
@@ -19491,7 +19496,7 @@
         <v>28.16</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>198</v>
       </c>
@@ -19505,7 +19510,7 @@
         <v>29.18</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>199</v>
       </c>
@@ -19519,7 +19524,7 @@
         <v>29.69</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>200</v>
       </c>
@@ -19533,7 +19538,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>201</v>
       </c>
@@ -19547,7 +19552,7 @@
         <v>29.98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>202</v>
       </c>
@@ -19561,7 +19566,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>203</v>
       </c>
@@ -19575,7 +19580,7 @@
         <v>30.87</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -19589,7 +19594,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -19603,7 +19608,7 @@
         <v>30.72</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>206</v>
       </c>
@@ -19617,7 +19622,7 @@
         <v>27.04</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>207</v>
       </c>
@@ -19631,7 +19636,7 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>208</v>
       </c>
@@ -19645,7 +19650,7 @@
         <v>28.92</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>209</v>
       </c>
@@ -19659,7 +19664,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>210</v>
       </c>
@@ -19673,7 +19678,7 @@
         <v>33.020000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>211</v>
       </c>
@@ -19687,7 +19692,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>212</v>
       </c>
@@ -19701,7 +19706,7 @@
         <v>31.28</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>213</v>
       </c>
@@ -19715,7 +19720,7 @@
         <v>26.76</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>214</v>
       </c>
@@ -19729,7 +19734,7 @@
         <v>35.21</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -19743,7 +19748,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>216</v>
       </c>
@@ -19757,7 +19762,7 @@
         <v>32.18</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>217</v>
       </c>
@@ -19771,7 +19776,7 @@
         <v>35.020000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>218</v>
       </c>
@@ -19785,7 +19790,7 @@
         <v>33.22</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>219</v>
       </c>
@@ -19799,7 +19804,7 @@
         <v>32.979999999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>220</v>
       </c>
@@ -19813,7 +19818,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -19827,7 +19832,7 @@
         <v>31.39</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>222</v>
       </c>
@@ -19841,7 +19846,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -19855,7 +19860,7 @@
         <v>37.89</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>224</v>
       </c>
@@ -19869,7 +19874,7 @@
         <v>33.06</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>225</v>
       </c>
@@ -19883,7 +19888,7 @@
         <v>33.630000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>226</v>
       </c>
@@ -19897,7 +19902,7 @@
         <v>32.44</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>227</v>
       </c>
@@ -19911,7 +19916,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>228</v>
       </c>
@@ -19925,7 +19930,7 @@
         <v>35.47</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>229</v>
       </c>
@@ -19939,7 +19944,7 @@
         <v>39.11</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>230</v>
       </c>
@@ -19953,7 +19958,7 @@
         <v>30.29</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>231</v>
       </c>
@@ -19967,7 +19972,7 @@
         <v>31.15</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>232</v>
       </c>
@@ -19981,7 +19986,7 @@
         <v>32.82</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>233</v>
       </c>
@@ -19995,7 +20000,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>234</v>
       </c>
@@ -20009,7 +20014,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>235</v>
       </c>
@@ -20023,7 +20028,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>236</v>
       </c>
@@ -20037,7 +20042,7 @@
         <v>31.48</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>237</v>
       </c>
@@ -20051,7 +20056,7 @@
         <v>28.48</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>238</v>
       </c>
@@ -20065,7 +20070,7 @@
         <v>32.26</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>239</v>
       </c>
@@ -20079,7 +20084,7 @@
         <v>32.92</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>240</v>
       </c>
@@ -20093,7 +20098,7 @@
         <v>32.630000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>241</v>
       </c>
@@ -20107,7 +20112,7 @@
         <v>33.96</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>242</v>
       </c>
@@ -20121,7 +20126,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>243</v>
       </c>
@@ -20135,7 +20140,7 @@
         <v>32.89</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>244</v>
       </c>
